--- a/Översikt PARTILLE.xlsx
+++ b/Översikt PARTILLE.xlsx
@@ -575,7 +575,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>46050.49048611111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 25251-2025</t>
+          <t>A 6983-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45800.50082175926</v>
+        <v>44967.68585648148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -769,13 +769,8 @@
           <t>PARTILLE</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -812,14 +807,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 35734-2023</t>
+          <t>A 25254-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45147.89258101852</v>
+        <v>45800.50479166667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,8 +826,13 @@
           <t>PARTILLE</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>5.9</v>
+        <v>0.2</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -869,14 +869,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 5402-2026</t>
+          <t>A 26074-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>46050.49721064815</v>
+        <v>45805.32366898148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,13 +888,8 @@
           <t>PARTILLE</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -931,14 +926,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 6983-2023</t>
+          <t>A 25251-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44967.68585648148</v>
+        <v>45800.50082175926</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -950,8 +945,13 @@
           <t>PARTILLE</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -988,14 +988,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 25254-2025</t>
+          <t>A 35734-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45800.50479166667</v>
+        <v>45147.89258101852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1007,13 +1007,8 @@
           <t>PARTILLE</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>0.2</v>
+        <v>5.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1050,14 +1045,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 26074-2025</t>
+          <t>A 5402-2026</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45805.32366898148</v>
+        <v>46050.49721064815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1069,8 +1064,13 @@
           <t>PARTILLE</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>

--- a/Översikt PARTILLE.xlsx
+++ b/Översikt PARTILLE.xlsx
@@ -575,7 +575,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>46050.49048611111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44967.68585648148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>45800.50479166667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45805.32366898148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45800.50082175926</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45147.89258101852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>46050.49721064815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Översikt PARTILLE.xlsx
+++ b/Översikt PARTILLE.xlsx
@@ -575,7 +575,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>46050.49048611111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44967.68585648148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>45800.50479166667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45805.32366898148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45800.50082175926</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45147.89258101852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>46050.49721064815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Översikt PARTILLE.xlsx
+++ b/Översikt PARTILLE.xlsx
@@ -575,7 +575,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>46050.49048611111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 6983-2023</t>
+          <t>A 35734-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44967.68585648148</v>
+        <v>45147.89258101852</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -807,14 +807,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 25254-2025</t>
+          <t>A 25251-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45800.50479166667</v>
+        <v>45800.50082175926</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -869,14 +869,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 26074-2025</t>
+          <t>A 5402-2026</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45805.32366898148</v>
+        <v>46050.49721064815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,8 +888,13 @@
           <t>PARTILLE</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -926,14 +931,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 25251-2025</t>
+          <t>A 6983-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45800.50082175926</v>
+        <v>44967.68585648148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,13 +950,8 @@
           <t>PARTILLE</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -988,14 +988,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 35734-2023</t>
+          <t>A 25254-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45147.89258101852</v>
+        <v>45800.50479166667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1007,8 +1007,13 @@
           <t>PARTILLE</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>5.9</v>
+        <v>0.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1045,14 +1050,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 5402-2026</t>
+          <t>A 26074-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>46050.49721064815</v>
+        <v>45805.32366898148</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1064,13 +1069,8 @@
           <t>PARTILLE</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>

--- a/Översikt PARTILLE.xlsx
+++ b/Översikt PARTILLE.xlsx
@@ -575,7 +575,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>46050.49048611111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 35734-2023</t>
+          <t>A 25251-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45147.89258101852</v>
+        <v>45800.50082175926</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -769,8 +769,13 @@
           <t>PARTILLE</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>5.9</v>
+        <v>0.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -807,14 +812,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 25251-2025</t>
+          <t>A 6983-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45800.50082175926</v>
+        <v>44967.68585648148</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -826,13 +831,8 @@
           <t>PARTILLE</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -869,14 +869,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 5402-2026</t>
+          <t>A 25254-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>46050.49721064815</v>
+        <v>45800.50479166667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -931,14 +931,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 6983-2023</t>
+          <t>A 26074-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44967.68585648148</v>
+        <v>45805.32366898148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -988,14 +988,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 25254-2025</t>
+          <t>A 35734-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45800.50479166667</v>
+        <v>45147.89258101852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1007,13 +1007,8 @@
           <t>PARTILLE</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>0.2</v>
+        <v>5.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1050,14 +1045,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 26074-2025</t>
+          <t>A 5402-2026</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45805.32366898148</v>
+        <v>46050.49721064815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1069,8 +1064,13 @@
           <t>PARTILLE</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>

--- a/Översikt PARTILLE.xlsx
+++ b/Översikt PARTILLE.xlsx
@@ -575,7 +575,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>46050.49048611111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 25251-2025</t>
+          <t>A 35734-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45800.50082175926</v>
+        <v>45147.89258101852</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -769,13 +769,8 @@
           <t>PARTILLE</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>0.7</v>
+        <v>5.9</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -812,14 +807,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 6983-2023</t>
+          <t>A 26074-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44967.68585648148</v>
+        <v>45805.32366898148</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -832,7 +827,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -869,14 +864,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 25254-2025</t>
+          <t>A 25251-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45800.50479166667</v>
+        <v>45800.50082175926</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -894,7 +889,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -931,14 +926,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 26074-2025</t>
+          <t>A 6983-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45805.32366898148</v>
+        <v>44967.68585648148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -951,7 +946,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>5.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -988,14 +983,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 35734-2023</t>
+          <t>A 25254-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45147.89258101852</v>
+        <v>45800.50479166667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1007,8 +1002,13 @@
           <t>PARTILLE</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>5.9</v>
+        <v>0.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>46050.49721064815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Översikt PARTILLE.xlsx
+++ b/Översikt PARTILLE.xlsx
@@ -575,7 +575,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>46050.49048611111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 35734-2023</t>
+          <t>A 6983-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45147.89258101852</v>
+        <v>44967.68585648148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -807,14 +807,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 26074-2025</t>
+          <t>A 25254-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45805.32366898148</v>
+        <v>45800.50479166667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -826,8 +826,13 @@
           <t>PARTILLE</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -864,14 +869,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 25251-2025</t>
+          <t>A 26074-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45800.50082175926</v>
+        <v>45805.32366898148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -883,13 +888,8 @@
           <t>PARTILLE</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -926,14 +926,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 6983-2023</t>
+          <t>A 25251-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44967.68585648148</v>
+        <v>45800.50082175926</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,8 +945,13 @@
           <t>PARTILLE</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -983,14 +988,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 25254-2025</t>
+          <t>A 35734-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45800.50479166667</v>
+        <v>45147.89258101852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,13 +1007,8 @@
           <t>PARTILLE</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>0.2</v>
+        <v>5.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>46050.49721064815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Översikt PARTILLE.xlsx
+++ b/Översikt PARTILLE.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 14042-2023</t>
+          <t>A 5398-2026</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45008</v>
+        <v>46050.49048611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -593,13 +593,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -627,46 +627,46 @@
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>Revlummer
-Äkta lopplummer</t>
+          <t>Brandticka
+Kambräken</t>
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/artfynd/A 14042-2023 artfynd.xlsx", "A 14042-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/artfynd/A 5398-2026 artfynd.xlsx", "A 5398-2026")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/kartor/A 14042-2023 karta.png", "A 14042-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/kartor/A 5398-2026 karta.png", "A 5398-2026")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/klagomål/A 14042-2023 FSC-klagomål.docx", "A 14042-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/klagomål/A 5398-2026 FSC-klagomål.docx", "A 5398-2026")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/klagomålsmail/A 14042-2023 FSC-klagomål mail.docx", "A 14042-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/klagomålsmail/A 5398-2026 FSC-klagomål mail.docx", "A 5398-2026")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/tillsyn/A 14042-2023 tillsynsbegäran.docx", "A 14042-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/tillsyn/A 5398-2026 tillsynsbegäran.docx", "A 5398-2026")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/tillsynsmail/A 14042-2023 tillsynsbegäran mail.docx", "A 14042-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/tillsynsmail/A 5398-2026 tillsynsbegäran mail.docx", "A 5398-2026")</f>
         <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 5398-2026</t>
+          <t>A 14042-2023</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>46050.49048611111</v>
+        <v>45008</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -684,13 +684,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -718,32 +718,32 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
-          <t>Brandticka
-Kambräken</t>
+          <t>Revlummer
+Äkta lopplummer</t>
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/artfynd/A 5398-2026 artfynd.xlsx", "A 5398-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/artfynd/A 14042-2023 artfynd.xlsx", "A 14042-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/kartor/A 5398-2026 karta.png", "A 5398-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/kartor/A 14042-2023 karta.png", "A 14042-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/klagomål/A 5398-2026 FSC-klagomål.docx", "A 5398-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/klagomål/A 14042-2023 FSC-klagomål.docx", "A 14042-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/klagomålsmail/A 5398-2026 FSC-klagomål mail.docx", "A 5398-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/klagomålsmail/A 14042-2023 FSC-klagomål mail.docx", "A 14042-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/tillsyn/A 5398-2026 tillsynsbegäran.docx", "A 5398-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/tillsyn/A 14042-2023 tillsynsbegäran.docx", "A 14042-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/tillsynsmail/A 5398-2026 tillsynsbegäran mail.docx", "A 5398-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/tillsynsmail/A 14042-2023 tillsynsbegäran mail.docx", "A 14042-2023")</f>
         <v/>
       </c>
     </row>
@@ -757,7 +757,7 @@
         <v>44967.68585648148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -807,14 +807,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 25254-2025</t>
+          <t>A 25251-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45800.50479166667</v>
+        <v>45800.50082175926</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -869,14 +869,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 26074-2025</t>
+          <t>A 25254-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45805.32366898148</v>
+        <v>45800.50479166667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,8 +888,13 @@
           <t>PARTILLE</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -926,14 +931,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 25251-2025</t>
+          <t>A 26074-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45800.50082175926</v>
+        <v>45805.32366898148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,13 +950,8 @@
           <t>PARTILLE</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -988,14 +988,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 35734-2023</t>
+          <t>A 5402-2026</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45147.89258101852</v>
+        <v>46050.49721064815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1007,8 +1007,13 @@
           <t>PARTILLE</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>5.9</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1045,14 +1050,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 5402-2026</t>
+          <t>A 35734-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>46050.49721064815</v>
+        <v>45147.89258101852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1064,13 +1069,8 @@
           <t>PARTILLE</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>0.7</v>
+        <v>5.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>

--- a/Översikt PARTILLE.xlsx
+++ b/Översikt PARTILLE.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 5398-2026</t>
+          <t>A 14042-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>46050.49048611111</v>
+        <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -593,13 +593,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -627,46 +627,46 @@
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>Brandticka
-Kambräken</t>
+          <t>Revlummer
+Äkta lopplummer</t>
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/artfynd/A 5398-2026 artfynd.xlsx", "A 5398-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/artfynd/A 14042-2023 artfynd.xlsx", "A 14042-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/kartor/A 5398-2026 karta.png", "A 5398-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/kartor/A 14042-2023 karta.png", "A 14042-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/klagomål/A 5398-2026 FSC-klagomål.docx", "A 5398-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/klagomål/A 14042-2023 FSC-klagomål.docx", "A 14042-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/klagomålsmail/A 5398-2026 FSC-klagomål mail.docx", "A 5398-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/klagomålsmail/A 14042-2023 FSC-klagomål mail.docx", "A 14042-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/tillsyn/A 5398-2026 tillsynsbegäran.docx", "A 5398-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/tillsyn/A 14042-2023 tillsynsbegäran.docx", "A 14042-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/tillsynsmail/A 5398-2026 tillsynsbegäran mail.docx", "A 5398-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/tillsynsmail/A 14042-2023 tillsynsbegäran mail.docx", "A 14042-2023")</f>
         <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 14042-2023</t>
+          <t>A 5398-2026</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45008</v>
+        <v>46050.49048611111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -684,13 +684,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -718,32 +718,32 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
-          <t>Revlummer
-Äkta lopplummer</t>
+          <t>Brandticka
+Kambräken</t>
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/artfynd/A 14042-2023 artfynd.xlsx", "A 14042-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/artfynd/A 5398-2026 artfynd.xlsx", "A 5398-2026")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/kartor/A 14042-2023 karta.png", "A 14042-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/kartor/A 5398-2026 karta.png", "A 5398-2026")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/klagomål/A 14042-2023 FSC-klagomål.docx", "A 14042-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/klagomål/A 5398-2026 FSC-klagomål.docx", "A 5398-2026")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/klagomålsmail/A 14042-2023 FSC-klagomål mail.docx", "A 14042-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/klagomålsmail/A 5398-2026 FSC-klagomål mail.docx", "A 5398-2026")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/tillsyn/A 14042-2023 tillsynsbegäran.docx", "A 14042-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/tillsyn/A 5398-2026 tillsynsbegäran.docx", "A 5398-2026")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1402/tillsynsmail/A 14042-2023 tillsynsbegäran mail.docx", "A 14042-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1402/tillsynsmail/A 5398-2026 tillsynsbegäran mail.docx", "A 5398-2026")</f>
         <v/>
       </c>
     </row>
@@ -757,7 +757,7 @@
         <v>44967.68585648148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>45800.50082175926</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45800.50479166667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45805.32366898148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>46050.49721064815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45147.89258101852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Översikt PARTILLE.xlsx
+++ b/Översikt PARTILLE.xlsx
@@ -575,7 +575,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>46050.49048611111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 6983-2023</t>
+          <t>A 25251-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44967.68585648148</v>
+        <v>45800.50082175926</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -769,8 +769,13 @@
           <t>PARTILLE</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -807,14 +812,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 25251-2025</t>
+          <t>A 35734-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45800.50082175926</v>
+        <v>45147.89258101852</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -826,13 +831,8 @@
           <t>PARTILLE</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>0.7</v>
+        <v>5.9</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>45800.50479166667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45805.32366898148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>46050.49721064815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1050,14 +1050,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 35734-2023</t>
+          <t>A 6983-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45147.89258101852</v>
+        <v>44967.68585648148</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>

--- a/Översikt PARTILLE.xlsx
+++ b/Översikt PARTILLE.xlsx
@@ -575,7 +575,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>46050.49048611111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 25251-2025</t>
+          <t>A 6983-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45800.50082175926</v>
+        <v>44967.68585648148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -769,13 +769,8 @@
           <t>PARTILLE</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -812,14 +807,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 35734-2023</t>
+          <t>A 25251-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45147.89258101852</v>
+        <v>45800.50082175926</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,8 +826,13 @@
           <t>PARTILLE</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>5.9</v>
+        <v>0.7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -869,14 +869,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 25254-2025</t>
+          <t>A 35734-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45800.50479166667</v>
+        <v>45147.89258101852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,13 +888,8 @@
           <t>PARTILLE</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>0.2</v>
+        <v>5.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -931,14 +926,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 26074-2025</t>
+          <t>A 5402-2026</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45805.32366898148</v>
+        <v>46050.49721064815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -950,8 +945,13 @@
           <t>PARTILLE</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -988,14 +988,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 5402-2026</t>
+          <t>A 25254-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>46050.49721064815</v>
+        <v>45800.50479166667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1050,14 +1050,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 6983-2023</t>
+          <t>A 26074-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44967.68585648148</v>
+        <v>45805.32366898148</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>

--- a/Översikt PARTILLE.xlsx
+++ b/Översikt PARTILLE.xlsx
@@ -575,7 +575,7 @@
         <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>46050.49048611111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44967.68585648148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>45800.50082175926</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>45147.89258101852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>46050.49721064815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45800.50479166667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45805.32366898148</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
